--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57339988-546E-4A68-ADF2-F933C938D7C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9DDCF3-DB6C-41F3-93D4-8E72FCA4FBD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T073352.923" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063535.591" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="103">
   <si>
     <t>Do Ty</t>
   </si>
@@ -251,6 +251,72 @@
   </si>
   <si>
     <t>PACKING ATAS PO 24001169/1166</t>
+  </si>
+  <si>
+    <t>PT. SINAR NAGAMAS PACKINDO</t>
+  </si>
+  <si>
+    <t>NAJWA</t>
+  </si>
+  <si>
+    <t>KABEL DUCT</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>CV DARWATECH INTERNUSA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Voucher Entry</t>
+  </si>
+  <si>
+    <t>238/DI/1223</t>
+  </si>
+  <si>
+    <t>TARMILAH</t>
+  </si>
+  <si>
+    <t>TACTILE KEYBOARD FAO</t>
+  </si>
+  <si>
+    <t>033/01/2024</t>
+  </si>
+  <si>
+    <t>AUTOSOL</t>
+  </si>
+  <si>
+    <t>2187/2188/2195/2196/2194</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>AMPLAS HALUS MERK TORRA</t>
+  </si>
+  <si>
+    <t>TOKOPEDIA</t>
+  </si>
+  <si>
+    <t>2194/103/1102</t>
+  </si>
+  <si>
+    <t>REGULATOR AIRTAC SR 200081</t>
+  </si>
+  <si>
+    <t>rak sapu pel gantungan dinding</t>
+  </si>
+  <si>
+    <t>HAND SANITIZER (INSTANCE GEL)</t>
+  </si>
+  <si>
+    <t>TIMAH SOLDER PANCING ROLL KECI</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1105,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2074,68 +2140,1518 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24002215</v>
+      </c>
+      <c r="D8">
+        <v>1204</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45342</v>
+      </c>
       <c r="F8" t="s">
         <v>77</v>
       </c>
       <c r="G8">
-        <v>254.14</v>
+        <v>10.82</v>
       </c>
       <c r="H8">
-        <v>254.14</v>
+        <v>10.82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>4013300</v>
+        <v>171000</v>
       </c>
       <c r="N8" s="2">
-        <v>4013300</v>
+        <v>171000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2104098</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
       </c>
       <c r="AG8">
-        <v>140</v>
+        <v>36</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>57423514</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8">
+        <v>1204</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX8">
+        <v>24001104</v>
+      </c>
+      <c r="AY8">
+        <v>630300</v>
+      </c>
+      <c r="AZ8">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>24002216</v>
+      </c>
+      <c r="D9">
+        <v>1204</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45342</v>
+      </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G9">
-        <v>254.14</v>
+        <v>22.61</v>
       </c>
       <c r="H9">
-        <v>254.14</v>
+        <v>22.61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>4013300</v>
+        <v>357226.82</v>
       </c>
       <c r="N9" s="2">
-        <v>4013300</v>
+        <v>357226.82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2104098</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
       </c>
       <c r="AG9">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>56165162</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9">
+        <v>1204</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>24001008</v>
+      </c>
+      <c r="AY9">
+        <v>630300</v>
+      </c>
+      <c r="AZ9">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24002219</v>
+      </c>
+      <c r="D10">
+        <v>1204</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45342</v>
+      </c>
       <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>68.34</v>
+      </c>
+      <c r="H10">
+        <v>68.34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2104175</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10">
+        <v>18</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>57112450</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1204</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
         <v>79</v>
       </c>
-      <c r="G10">
-        <v>254.14</v>
-      </c>
-      <c r="H10">
-        <v>254.14</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4013300</v>
-      </c>
-      <c r="N10" s="2">
-        <v>4013300</v>
-      </c>
-      <c r="AG10">
-        <v>140</v>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX10">
+        <v>24001086</v>
+      </c>
+      <c r="AY10">
+        <v>630300</v>
+      </c>
+      <c r="AZ10">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <v>24002547</v>
+      </c>
+      <c r="D11">
+        <v>1204</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45342</v>
+      </c>
       <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>-2.15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>-2.15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11">
+        <v>2104165</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>56306480</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45294</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1204</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX11">
+        <v>23002175</v>
+      </c>
+      <c r="AY11">
+        <v>630300</v>
+      </c>
+      <c r="AZ11">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>24002548</v>
+      </c>
+      <c r="D12">
+        <v>1204</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>-0.11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>-0.11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12">
+        <v>2104255</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>57416795</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45306</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP12">
+        <v>1204</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX12">
+        <v>24001017</v>
+      </c>
+      <c r="AY12">
+        <v>630300</v>
+      </c>
+      <c r="AZ12">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>24002589</v>
+      </c>
+      <c r="D13">
+        <v>1204</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>-0.53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>-0.53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13">
+        <v>2104941</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>56165162</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45282</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13">
+        <v>1204</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX13">
+        <v>23002152</v>
+      </c>
+      <c r="AY13">
+        <v>630300</v>
+      </c>
+      <c r="AZ13">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>24002591</v>
+      </c>
+      <c r="D14">
+        <v>1204</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>-0.93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>-0.93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
+        <v>2105011</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>57163396</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1204</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14">
+        <v>23002194</v>
+      </c>
+      <c r="AY14">
+        <v>630300</v>
+      </c>
+      <c r="AZ14">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24002291</v>
+      </c>
+      <c r="D15">
+        <v>1204</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>20.66</v>
+      </c>
+      <c r="H15">
+        <v>20.66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2">
+        <v>326500</v>
+      </c>
+      <c r="N15" s="2">
+        <v>326500</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2104803</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15">
+        <v>21</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15">
+        <v>56165162</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP15">
+        <v>1204</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX15">
+        <v>24001103</v>
+      </c>
+      <c r="AY15">
+        <v>630300</v>
+      </c>
+      <c r="AZ15">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24002292</v>
+      </c>
+      <c r="D16">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>45.63</v>
+      </c>
+      <c r="H16">
+        <v>45.63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>721150</v>
+      </c>
+      <c r="N16" s="2">
+        <v>721150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2104803</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>455</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>56165162</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP16">
+        <v>1204</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX16">
+        <v>24001116</v>
+      </c>
+      <c r="AY16">
+        <v>630300</v>
+      </c>
+      <c r="AZ16">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24002312</v>
+      </c>
+      <c r="D17">
+        <v>1204</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>15.35</v>
+      </c>
+      <c r="H17">
+        <v>15.35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>242600</v>
+      </c>
+      <c r="N17" s="2">
+        <v>242600</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2105144</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>56165162</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP17">
+        <v>1204</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX17">
+        <v>24001143</v>
+      </c>
+      <c r="AY17">
+        <v>630300</v>
+      </c>
+      <c r="AZ17">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24002314</v>
+      </c>
+      <c r="D18">
+        <v>1204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>2.72</v>
+      </c>
+      <c r="H18">
+        <v>2.72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2105144</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18">
+        <v>56165162</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18">
+        <v>1204</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX18">
+        <v>24001159</v>
+      </c>
+      <c r="AY18">
+        <v>630300</v>
+      </c>
+      <c r="AZ18">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19">
+        <v>436.55</v>
+      </c>
+      <c r="H19">
+        <v>440.27</v>
+      </c>
+      <c r="K19">
+        <v>-3.72</v>
+      </c>
+      <c r="L19" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="N19" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="AG19">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>436.55</v>
+      </c>
+      <c r="H20">
+        <v>436.55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="N20" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="AG20">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>436.66</v>
+      </c>
+      <c r="H21">
+        <v>440.27</v>
+      </c>
+      <c r="K21">
+        <v>-3.61</v>
+      </c>
+      <c r="L21" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>6954776.8200000003</v>
+      </c>
+      <c r="AG21">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>-0.11</v>
+      </c>
+      <c r="K22">
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630300.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630300.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9DDCF3-DB6C-41F3-93D4-8E72FCA4FBD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D3D54D-226B-424D-AD93-70BF7E2627D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063535.591" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063744.055" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="117">
   <si>
     <t>Do Ty</t>
   </si>
@@ -317,6 +317,48 @@
   </si>
   <si>
     <t>TIMAH SOLDER PANCING ROLL KECI</t>
+  </si>
+  <si>
+    <t>TOMBOL HANGER/KNOP BEL</t>
+  </si>
+  <si>
+    <t>SIKAT KAWAT</t>
+  </si>
+  <si>
+    <t>PT SERUM INDO PERKASA</t>
+  </si>
+  <si>
+    <t>KAFASITOR  4 MIKRO UF MF 450V</t>
+  </si>
+  <si>
+    <t>KABEL NYM MERK SUPREME</t>
+  </si>
+  <si>
+    <t>PT. KEMAS SARANA MULTIGUNA</t>
+  </si>
+  <si>
+    <t>STICKER COKLAT</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>FACTORY SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>KEBUTUHAN FACTORY</t>
+  </si>
+  <si>
+    <t>STICKER PANAH</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1171,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2689,10 +2731,10 @@
         <v>-0.11</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>-0.11</v>
@@ -2764,7 +2806,7 @@
         <v>86</v>
       </c>
       <c r="AO12" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="AP12">
         <v>1204</v>
@@ -3578,80 +3620,1128 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24002346</v>
+      </c>
+      <c r="D19">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45348</v>
+      </c>
       <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19">
+        <v>13.62</v>
+      </c>
+      <c r="H19">
+        <v>13.62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2">
+        <v>215300</v>
+      </c>
+      <c r="N19" s="2">
+        <v>215300</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2105408</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19">
+        <v>20</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>57163396</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP19">
+        <v>1204</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19" t="s">
         <v>99</v>
       </c>
-      <c r="G19">
-        <v>436.55</v>
-      </c>
-      <c r="H19">
-        <v>440.27</v>
-      </c>
-      <c r="K19">
-        <v>-3.72</v>
-      </c>
-      <c r="L19" s="2">
-        <v>6954776.8200000003</v>
-      </c>
-      <c r="N19" s="2">
-        <v>6954776.8200000003</v>
-      </c>
-      <c r="AG19">
-        <v>702</v>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX19">
+        <v>24001162</v>
+      </c>
+      <c r="AY19">
+        <v>630300</v>
+      </c>
+      <c r="AZ19">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24002347</v>
+      </c>
+      <c r="D20">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45348</v>
+      </c>
       <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>2.15</v>
+      </c>
+      <c r="H20">
+        <v>2.15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>34000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>34000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2105410</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>57416795</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR20" t="s">
         <v>100</v>
       </c>
-      <c r="G20">
-        <v>436.55</v>
-      </c>
-      <c r="H20">
-        <v>436.55</v>
-      </c>
-      <c r="L20" s="2">
-        <v>6954776.8200000003</v>
-      </c>
-      <c r="N20" s="2">
-        <v>6954776.8200000003</v>
-      </c>
-      <c r="AG20">
-        <v>702</v>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX20">
+        <v>24001132</v>
+      </c>
+      <c r="AY20">
+        <v>630300</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24002364</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45348</v>
+      </c>
       <c r="F21" t="s">
         <v>101</v>
       </c>
       <c r="G21">
-        <v>436.66</v>
+        <v>47.46</v>
       </c>
       <c r="H21">
-        <v>440.27</v>
-      </c>
-      <c r="K21">
-        <v>-3.61</v>
+        <v>47.46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>6954776.8200000003</v>
+        <v>750000</v>
       </c>
       <c r="N21" s="2">
-        <v>6954776.8200000003</v>
+        <v>750000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2105586</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
       </c>
       <c r="AG21">
-        <v>702</v>
+        <v>10</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>55777351</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX21">
+        <v>24001119</v>
+      </c>
+      <c r="AY21">
+        <v>630300</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.6303</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24002366</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45348</v>
+      </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>-0.11</v>
-      </c>
-      <c r="K22">
-        <v>-0.11</v>
+        <v>313.23</v>
+      </c>
+      <c r="H22">
+        <v>313.23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4950000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4950000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2105606</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22">
+        <v>100</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>57112450</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX22">
+        <v>24001134</v>
+      </c>
+      <c r="AY22">
+        <v>630300</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24002402</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23">
+        <v>16.46</v>
+      </c>
+      <c r="H23">
+        <v>16.46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2">
+        <v>260000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>260000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2105804</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>56418043</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX23">
+        <v>24001221</v>
+      </c>
+      <c r="AY23">
+        <v>630300</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24">
+        <v>24001031</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24">
+        <v>273.12</v>
+      </c>
+      <c r="H24">
+        <v>273.12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4316070</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4316070</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" t="s">
+        <v>110</v>
+      </c>
+      <c r="X24">
+        <v>2106355</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY24">
+        <v>630300</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24002403</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>6.64</v>
+      </c>
+      <c r="H25">
+        <v>6.64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>105000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>105000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2105882</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>56306480</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX25">
+        <v>24001111</v>
+      </c>
+      <c r="AY25">
+        <v>630300</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <v>24001040</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="H26">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1223700</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1223700</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" t="s">
+        <v>110</v>
+      </c>
+      <c r="X26">
+        <v>2106431</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY26">
+        <v>630300</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.6303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1186.6600000000001</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1190.3800000000001</v>
+      </c>
+      <c r="K27">
+        <v>-3.72</v>
+      </c>
+      <c r="L27" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="N27" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1186.6600000000001</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1186.6600000000001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="N28" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1186.6600000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1190.3800000000001</v>
+      </c>
+      <c r="K29">
+        <v>-3.72</v>
+      </c>
+      <c r="L29" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="N29" s="2">
+        <v>18808846.82</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
